--- a/data/trans_camb/P27A_9-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P27A_9-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 1,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,44; -1,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 1,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 2,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,2; -1,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 1,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,87; -1,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-10,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-4,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,12 +929,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-55,26; 64,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,86; 142,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +944,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-47,37; 93,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,84; 113,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,15 +959,45 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,76; 50,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 85,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 1,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 3,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,5; -1,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 4,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,46; -0,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 3,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; -1,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-30,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>106,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-13,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>56,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1265,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-70,15; 79,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-42,77; 195,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1280,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,34; 229,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 436,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,15 +1295,45 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-52,79; 69,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 184,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,12 +1435,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 2,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 2,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1132,12 +1450,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 5,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 6,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1147,15 +1465,45 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 2,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 3,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,12 +1518,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-32,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-35,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1185,12 +1533,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>89,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>112,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1200,15 +1548,45 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-5,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-2,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,12 +1601,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-84,94; 107,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-92,01; 115,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1616,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-72,26; 917,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-75,37; 1155,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,15 +1631,45 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-70,62; 147,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-73,74; 154,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,75; -2,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 2,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; -1,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 0,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,47; -2,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-22,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>51,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-7,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1937,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-53,15; 25,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,7; 72,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1952,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,55; 77,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 132,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,30 +1967,67 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-36,2; 24,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 75,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
